--- a/src/art-parent/art/src/main/webapp/WEB-INF/work/templates/sample-jxls1.xlsx
+++ b/src/art-parent/art/src/main/webapp/WEB-INF/work/templates/sample-jxls1.xlsx
@@ -15,8 +15,57 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="E12")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="jdbc.query('select o.order_id, c.name city_name, i.name item_name, o.order_date, o.volume from orders o, cities c, items i where o.city_id=c.city_id and o.item_id=i.item_id and order_date&gt;=? and o.city_id=? order by o.order_date', order_date.value, cityId.value)" var="item" lastCell="E10")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Sample jxls report</t>
   </si>
@@ -27,21 +76,6 @@
     <t>Data:</t>
   </si>
   <si>
-    <t>&lt;/jx:forEach&gt;</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${rm.exec(1,"select o.order_id, c.name city_name, i.name item_name, o.order_date, o.volume from orders o, cities c, items i where o.city_id=c.city_id and o.item_id=i.item_id and order_date&gt;='" + order_date + "' and o.city_id=" + city + " and o.item_id in(" + item + ") order by o.order_date")}" var="item"&gt;</t>
-  </si>
-  <si>
-    <t>${order_date}</t>
-  </si>
-  <si>
-    <t>City: ${city}</t>
-  </si>
-  <si>
-    <t>Items: ${item}</t>
-  </si>
-  <si>
     <t>${item.ORDER_ID}</t>
   </si>
   <si>
@@ -72,20 +106,30 @@
     <t>Volume</t>
   </si>
   <si>
-    <t>$[SUM(E11)]</t>
-  </si>
-  <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>${order_date.value}</t>
+  </si>
+  <si>
+    <t>${cityId.parameter.label}</t>
+  </si>
+  <si>
+    <t>${item.nameAndDisplayValues}</t>
+  </si>
+  <si>
+    <t>${cityId.value}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,9 +166,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -160,10 +212,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,15 +516,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -487,18 +540,21 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
+      <c r="A4" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>7</v>
+      <c r="A6" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -508,65 +564,55 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>18</v>
+      <c r="E12" s="3">
+        <f>SUM(E10)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/art-parent/art/src/main/webapp/WEB-INF/work/templates/sample-jxls1.xlsx
+++ b/src/art-parent/art/src/main/webapp/WEB-INF/work/templates/sample-jxls1.xlsx
@@ -56,7 +56,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="jdbc.query('select o.order_id, c.name city_name, i.name item_name, o.order_date, o.volume from orders o, cities c, items i where o.city_id=c.city_id and o.item_id=i.item_id and order_date&gt;=? and o.city_id=? order by o.order_date', order_date.value, cityId.value)" var="item" lastCell="E10")</t>
+jx:each(items="jdbc.query('select o.order_id, c.name city_name, i.name item_name, o.order_date, o.volume from orders o, cities c, items i where o.city_id=c.city_id and o.item_id=i.item_id and order_date&gt;=? and o.city_id=? and o.item_id in(' + item.sqlValue + ') order by o.order_date', order_date.value, cityId.value)" var="item" lastCell="E10")</t>
         </r>
       </text>
     </comment>
@@ -520,7 +520,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/art-parent/art/src/main/webapp/WEB-INF/work/templates/sample-jxls1.xlsx
+++ b/src/art-parent/art/src/main/webapp/WEB-INF/work/templates/sample-jxls1.xlsx
@@ -115,10 +115,10 @@
     <t>${cityId.parameter.label}</t>
   </si>
   <si>
-    <t>${item.nameAndDisplayValues}</t>
-  </si>
-  <si>
     <t>${cityId.value}</t>
+  </si>
+  <si>
+    <t>${item.getLocalizedLabelAndDisplayValues(locale)}</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,12 +549,12 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
